--- a/renderer/src/assets/Template.xlsx
+++ b/renderer/src/assets/Template.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4FAF4B-CF29-4574-82EF-A29808C2DFAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Total Output" state="visible" r:id="rId4"/>
+    <sheet name="Total Output" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>PZT OUTPUT MONITORING</t>
   </si>
@@ -30,74 +31,44 @@
   <si>
     <t>Quantity</t>
   </si>
-  <si>
-    <t>4/15/2025</t>
-  </si>
-  <si>
-    <t>14:48</t>
-  </si>
-  <si>
-    <t>asd</t>
-  </si>
-  <si>
-    <t>zxc</t>
-  </si>
-  <si>
-    <t>14:53</t>
-  </si>
-  <si>
-    <t>15:44</t>
-  </si>
-  <si>
-    <t>6/10/2025</t>
-  </si>
-  <si>
-    <t>11:38</t>
-  </si>
-  <si>
-    <t>N17252</t>
-  </si>
-  <si>
-    <t>S17252</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <sz val="11"/>
-      <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <sz val="11"/>
-      <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="22"/>
       <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <sz val="22"/>
-      <name val="Arial"/>
     </font>
     <font>
+      <sz val="12"/>
       <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <sz val="12"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -109,13 +80,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.1499984740745262"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.7999816888943144"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -194,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -206,25 +177,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -264,7 +238,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Picture 1">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
@@ -558,221 +532,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="23.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="41.6640625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:4" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" ht="25.8" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+    <row r="2" spans="1:4" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+    <row r="4" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="2">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="2">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="2">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="2">
-        <v>389</v>
-      </c>
+      <c r="D4" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -784,7 +591,7 @@
     <mergeCell ref="D3:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/renderer/src/assets/Template.xlsx
+++ b/renderer/src/assets/Template.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4FAF4B-CF29-4574-82EF-A29808C2DFAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
-    <sheet name="Total Output" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Total Output" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="22">
   <si>
     <t>PZT OUTPUT MONITORING</t>
   </si>
@@ -30,45 +29,96 @@
   </si>
   <si>
     <t>Quantity</t>
+  </si>
+  <si>
+    <t>6/11/2025</t>
+  </si>
+  <si>
+    <t>6:8</t>
+  </si>
+  <si>
+    <t>vbnmkl;</t>
+  </si>
+  <si>
+    <t>6:11</t>
+  </si>
+  <si>
+    <t>yhjiop</t>
+  </si>
+  <si>
+    <t>6:12</t>
+  </si>
+  <si>
+    <t>asdasdasdasdasda</t>
+  </si>
+  <si>
+    <t>6:13</t>
+  </si>
+  <si>
+    <t>yguhjk</t>
+  </si>
+  <si>
+    <t>6:14</t>
+  </si>
+  <si>
+    <t>asdasdasdasdasdasdasdasd</t>
+  </si>
+  <si>
+    <t>6:49</t>
+  </si>
+  <si>
+    <t>iuhhaiushd</t>
+  </si>
+  <si>
+    <t>6:50</t>
+  </si>
+  <si>
+    <t>bnkl</t>
+  </si>
+  <si>
+    <t>bnm</t>
+  </si>
+  <si>
+    <t>jkl</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
+      <color theme="1"/>
+      <family val="2"/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
+      <color theme="1"/>
+      <family val="2"/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
+      <color theme="1"/>
+      <family val="2"/>
       <sz val="22"/>
-      <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
+      <color theme="1"/>
+      <family val="2"/>
       <sz val="12"/>
-      <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -80,13 +130,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-0.1499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.7999816888943144"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -165,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -177,28 +227,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -238,7 +285,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="1" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
@@ -532,54 +579,641 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
     <col min="1" max="3" width="23.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="41.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="3"/>
+    <col min="5" max="16384" width="8.88671875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6"/>
+    <row r="1" ht="23.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+    <row r="2" ht="25.8" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
+    <row r="4" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
-      <c r="D4" s="13"/>
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="2">
+        <v>69420</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="2">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="2">
+        <v>69420</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="2">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="2">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="2">
+        <v>69420</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="2">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="2">
+        <v>69420</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="2">
+        <v>69420</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="2">
+        <v>89</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -591,7 +1225,7 @@
     <mergeCell ref="D3:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>